--- a/city-list.xlsx
+++ b/city-list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,21 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>asdfads</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>adsfsfsadfsd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/city-list.xlsx
+++ b/city-list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,16 +485,196 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>asdfads</t>
+          <t>东三省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>adsfsfsadfsd</t>
+          <t>沈阳市</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>陕西</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西安市</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>济南市</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>青岛市</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>东三省</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大连市</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>东三省</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>昆明市</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>大深圳</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东莞市</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>河北</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>石家庄市</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>东三省</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长春市</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>26</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太原市</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>河南</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>洛阳市</t>
         </is>
       </c>
     </row>
